--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santosh Kannan\Desktop\UF\ResumeProjects\BugTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImpFolder\Study\Projects\BugTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33182B5-49EB-4B88-81A6-F08E0E228E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C292ED-3E80-474B-808C-D1A0F6DAEFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{886EFED1-650A-4142-9A82-0722A0454DCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>Project Manager</t>
   </si>
@@ -357,15 +357,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -390,9 +381,6 @@
     <xf numFmtId="16" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -416,6 +404,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +757,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,75 +821,75 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="13" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="28" t="s">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="28" t="s">
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="40"/>
+      <c r="AR3" s="40"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="AU3" s="28"/>
+      <c r="AU3" s="42"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="AR4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="36" t="s">
+      <c r="AS4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="AT4" s="11" t="s">
@@ -1015,18 +1015,18 @@
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="12">
@@ -1143,7 +1143,7 @@
       <c r="AR5" s="12">
         <v>30</v>
       </c>
-      <c r="AS5" s="37">
+      <c r="AS5" s="33">
         <v>31</v>
       </c>
       <c r="AT5" s="12">
@@ -1154,22 +1154,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>44158</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <v>44158</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>44158</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="24">
         <v>44158</v>
       </c>
       <c r="G6" s="8"/>
@@ -1179,7 +1179,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="29"/>
+      <c r="N6" s="25"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1210,27 +1210,27 @@
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
-      <c r="AS6" s="33"/>
+      <c r="AS6" s="29"/>
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="16">
         <v>44158</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>44158</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>44158</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="16">
         <v>44158</v>
       </c>
       <c r="G7" s="2"/>
@@ -1239,7 +1239,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="30"/>
+      <c r="N7" s="26"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
@@ -1268,21 +1268,21 @@
       <c r="AN7" s="7"/>
       <c r="AO7" s="7"/>
       <c r="AP7" s="7"/>
-      <c r="AS7" s="32"/>
+      <c r="AS7" s="28"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18">
         <v>44159</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>44176</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
@@ -1290,7 +1290,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-      <c r="N8" s="31"/>
+      <c r="N8" s="27"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -1321,105 +1321,121 @@
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
-      <c r="AS8" s="33"/>
+      <c r="AS8" s="29"/>
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="19">
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="16">
         <v>44159</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="16">
         <v>44159</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>44159</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="16">
         <v>44159</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="N9" s="32"/>
-      <c r="AS9" s="32"/>
+      <c r="N9" s="28"/>
+      <c r="AS9" s="28"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="19">
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="16">
         <v>44160</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>44162</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>44160</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="38">
         <v>44163</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="5"/>
-      <c r="N10" s="32"/>
-      <c r="AS10" s="32"/>
+      <c r="N10" s="28"/>
+      <c r="AS10" s="28"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="19">
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16">
         <v>44174</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>44175</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="N11" s="32"/>
+      <c r="E11" s="16">
+        <v>44172</v>
+      </c>
+      <c r="F11" s="16">
+        <v>44173</v>
+      </c>
+      <c r="N11" s="28"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="AS11" s="32"/>
+      <c r="AS11" s="28"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="19">
+      <c r="B12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="16">
         <v>44176</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="16">
         <v>44176</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="N12" s="32"/>
+      <c r="E12" s="16">
+        <v>44176</v>
+      </c>
+      <c r="F12" s="16">
+        <v>44176</v>
+      </c>
+      <c r="N12" s="28"/>
       <c r="Y12" s="2"/>
-      <c r="AS12" s="32"/>
+      <c r="AS12" s="28"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21">
+      <c r="B13" s="19"/>
+      <c r="C13" s="18">
         <v>44162</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="18">
         <v>44162</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>44162</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>44162</v>
       </c>
       <c r="G13" s="4"/>
@@ -1429,7 +1445,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="33"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1460,44 +1476,46 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
-      <c r="AS13" s="33"/>
+      <c r="AS13" s="29"/>
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="19">
+      <c r="B14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="16">
         <v>44162</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="16">
         <v>44162</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>44162</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="16">
         <v>44162</v>
       </c>
       <c r="K14" s="2"/>
-      <c r="N14" s="32"/>
-      <c r="AS14" s="32"/>
+      <c r="N14" s="28"/>
+      <c r="AS14" s="28"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="21">
+      <c r="B15" s="19"/>
+      <c r="C15" s="18">
         <v>44165</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>44177</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1505,7 +1523,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="31"/>
+      <c r="N15" s="27"/>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -1536,131 +1554,167 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="33"/>
+      <c r="AS15" s="29"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="19">
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="16">
         <v>44165</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="16">
         <v>44165</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="N16" s="34"/>
-      <c r="AS16" s="32"/>
+      <c r="E16" s="16">
+        <v>44165</v>
+      </c>
+      <c r="F16" s="16">
+        <v>44165</v>
+      </c>
+      <c r="N16" s="30"/>
+      <c r="AS16" s="28"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="19">
+      <c r="B17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="16">
         <v>44165</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="16">
         <v>44165</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="N17" s="34"/>
-      <c r="AS17" s="32"/>
+      <c r="E17" s="16">
+        <v>44165</v>
+      </c>
+      <c r="F17" s="16">
+        <v>44165</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="AS17" s="28"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="19">
+      <c r="B18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="16">
         <v>44166</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="16">
         <v>44168</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="N18" s="32"/>
+      <c r="E18" s="16">
+        <v>44166</v>
+      </c>
+      <c r="F18" s="16">
+        <v>44168</v>
+      </c>
+      <c r="N18" s="28"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="5"/>
-      <c r="AS18" s="32"/>
+      <c r="AS18" s="28"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="19">
+      <c r="B19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="16">
         <v>44169</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="16">
         <v>44170</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="N19" s="32"/>
+      <c r="E19" s="16">
+        <v>44169</v>
+      </c>
+      <c r="F19" s="16">
+        <v>44170</v>
+      </c>
+      <c r="N19" s="28"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="5"/>
-      <c r="AS19" s="32"/>
+      <c r="AS19" s="28"/>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="19">
+      <c r="B20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="16">
         <v>44171</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="16">
         <v>44173</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="N20" s="32"/>
+      <c r="E20" s="16">
+        <v>44171</v>
+      </c>
+      <c r="F20" s="16">
+        <v>44173</v>
+      </c>
+      <c r="N20" s="28"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
-      <c r="AS20" s="32"/>
+      <c r="AS20" s="28"/>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="19">
+      <c r="B21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="16">
         <v>44176</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="16">
         <v>44177</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="N21" s="32"/>
+      <c r="E21" s="16">
+        <v>44176</v>
+      </c>
+      <c r="F21" s="16">
+        <v>44177</v>
+      </c>
+      <c r="N21" s="28"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AS21" s="32"/>
+      <c r="AS21" s="28"/>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21">
+      <c r="B22" s="19"/>
+      <c r="C22" s="18">
         <v>44183</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="18">
         <v>44188</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1668,7 +1722,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="33"/>
+      <c r="N22" s="29"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -1699,210 +1753,222 @@
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
       <c r="AR22" s="4"/>
-      <c r="AS22" s="33"/>
+      <c r="AS22" s="29"/>
       <c r="AT22" s="4"/>
       <c r="AU22" s="4"/>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="19">
+      <c r="B23" s="20"/>
+      <c r="C23" s="16">
         <v>44183</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="16">
         <v>44183</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="N23" s="32"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="N23" s="28"/>
       <c r="AF23" s="2"/>
-      <c r="AS23" s="32"/>
+      <c r="AS23" s="28"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="19">
+      <c r="B24" s="20"/>
+      <c r="C24" s="16">
         <v>44183</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <v>44183</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="N24" s="32"/>
+      <c r="E24" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F24" s="16">
+        <v>44183</v>
+      </c>
+      <c r="N24" s="28"/>
       <c r="AF24" s="2"/>
-      <c r="AS24" s="32"/>
+      <c r="AS24" s="28"/>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="19">
+      <c r="B25" s="20"/>
+      <c r="C25" s="16">
         <v>44184</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="16">
         <v>44184</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="N25" s="32"/>
+      <c r="E25" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F25" s="16">
+        <v>44183</v>
+      </c>
+      <c r="N25" s="28"/>
       <c r="AG25" s="2"/>
-      <c r="AS25" s="32"/>
+      <c r="AS25" s="28"/>
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="19">
+      <c r="B26" s="20"/>
+      <c r="C26" s="16">
         <v>44184</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="16">
         <v>44184</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="N26" s="32"/>
+      <c r="E26" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F26" s="16">
+        <v>44183</v>
+      </c>
+      <c r="N26" s="28"/>
       <c r="AG26" s="2"/>
-      <c r="AS26" s="32"/>
+      <c r="AS26" s="28"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="19">
+      <c r="B27" s="20"/>
+      <c r="C27" s="16">
         <v>44185</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="16">
         <v>44185</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="N27" s="32"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="N27" s="28"/>
       <c r="AH27" s="2"/>
-      <c r="AS27" s="32"/>
+      <c r="AS27" s="28"/>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="19">
+      <c r="B28" s="20"/>
+      <c r="C28" s="16">
         <v>44185</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="16">
         <v>44185</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="N28" s="32"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="N28" s="28"/>
       <c r="AH28" s="2"/>
-      <c r="AS28" s="32"/>
+      <c r="AS28" s="28"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="19">
+      <c r="B29" s="20"/>
+      <c r="C29" s="16">
         <v>44186</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="16">
         <v>44186</v>
       </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="N29" s="32"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="N29" s="28"/>
       <c r="AI29" s="2"/>
-      <c r="AS29" s="32"/>
+      <c r="AS29" s="28"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="19">
+      <c r="B30" s="20"/>
+      <c r="C30" s="16">
         <v>44187</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="16">
         <v>44187</v>
       </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="N30" s="32"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="N30" s="28"/>
       <c r="AJ30" s="2"/>
-      <c r="AS30" s="32"/>
+      <c r="AS30" s="28"/>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="19">
+      <c r="B31" s="20"/>
+      <c r="C31" s="16">
         <v>44187</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="16">
         <v>44187</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="N31" s="32"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="N31" s="28"/>
       <c r="AJ31" s="2"/>
-      <c r="AS31" s="32"/>
+      <c r="AS31" s="28"/>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="19">
+      <c r="B32" s="20"/>
+      <c r="C32" s="16">
         <v>44187</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="16">
         <v>44187</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="N32" s="32"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="N32" s="28"/>
       <c r="AJ32" s="2"/>
-      <c r="AS32" s="32"/>
+      <c r="AS32" s="28"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="19">
+      <c r="B33" s="20"/>
+      <c r="C33" s="16">
         <v>44188</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="16">
         <v>44188</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="N33" s="32"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="N33" s="28"/>
       <c r="AK33" s="2"/>
-      <c r="AS33" s="32"/>
+      <c r="AS33" s="28"/>
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="21">
+      <c r="B34" s="19"/>
+      <c r="C34" s="18">
         <v>44189</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="18">
         <v>44193</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1910,7 +1976,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="33"/>
+      <c r="N34" s="29"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -1941,250 +2007,250 @@
       <c r="AP34" s="9"/>
       <c r="AQ34" s="4"/>
       <c r="AR34" s="4"/>
-      <c r="AS34" s="33"/>
+      <c r="AS34" s="29"/>
       <c r="AT34" s="4"/>
       <c r="AU34" s="4"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="16">
         <v>44189</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="16">
         <v>44191</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="N35" s="32"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="N35" s="28"/>
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" s="2"/>
-      <c r="AS35" s="32"/>
+      <c r="AS35" s="28"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="16">
         <v>44192</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="16">
         <v>44192</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="N36" s="32"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="N36" s="28"/>
       <c r="AO36" s="2"/>
-      <c r="AS36" s="32"/>
+      <c r="AS36" s="28"/>
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="16">
         <v>44192</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="16">
         <v>44192</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="N37" s="32"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="N37" s="28"/>
       <c r="AO37" s="2"/>
-      <c r="AS37" s="32"/>
+      <c r="AS37" s="28"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="16">
         <v>44193</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="16">
         <v>44193</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="N38" s="32"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="N38" s="28"/>
       <c r="AP38" s="2"/>
-      <c r="AS38" s="32"/>
+      <c r="AS38" s="28"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="16">
         <v>44193</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="16">
         <v>44193</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="N39" s="32"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="N39" s="28"/>
       <c r="AP39" s="2"/>
-      <c r="AS39" s="32"/>
+      <c r="AS39" s="28"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="21">
+      <c r="B40" s="19"/>
+      <c r="C40" s="18">
         <v>44194</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="18">
         <v>44195</v>
       </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
-      <c r="X40" s="22"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
-      <c r="AD40" s="22"/>
-      <c r="AE40" s="22"/>
-      <c r="AF40" s="22"/>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="22"/>
-      <c r="AI40" s="22"/>
-      <c r="AJ40" s="22"/>
-      <c r="AK40" s="22"/>
-      <c r="AL40" s="22"/>
-      <c r="AM40" s="22"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
       <c r="AQ40" s="9"/>
       <c r="AR40" s="9"/>
       <c r="AS40" s="4"/>
-      <c r="AT40" s="22"/>
-      <c r="AU40" s="22"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="43">
+      <c r="B41" s="35"/>
+      <c r="C41" s="39">
         <v>43831</v>
       </c>
-      <c r="D41" s="43">
+      <c r="D41" s="39">
         <v>43832</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="39"/>
-      <c r="R41" s="39"/>
-      <c r="S41" s="39"/>
-      <c r="T41" s="39"/>
-      <c r="U41" s="39"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="39"/>
-      <c r="Y41" s="39"/>
-      <c r="Z41" s="39"/>
-      <c r="AA41" s="39"/>
-      <c r="AB41" s="39"/>
-      <c r="AC41" s="39"/>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39"/>
-      <c r="AH41" s="39"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
-      <c r="AK41" s="39"/>
-      <c r="AL41" s="39"/>
-      <c r="AM41" s="39"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="39"/>
-      <c r="AP41" s="39"/>
-      <c r="AQ41" s="39"/>
-      <c r="AR41" s="39"/>
-      <c r="AS41" s="40"/>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="35"/>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="35"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
+      <c r="AR41" s="35"/>
+      <c r="AS41" s="36"/>
+      <c r="AT41" s="37"/>
+      <c r="AU41" s="37"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="N42" s="32"/>
-      <c r="AS42" s="32"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="N42" s="28"/>
+      <c r="AS42" s="28"/>
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="N43" s="32"/>
-      <c r="AS43" s="32"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="N43" s="28"/>
+      <c r="AS43" s="28"/>
     </row>
     <row r="44" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="N44" s="32"/>
-      <c r="AS44" s="32"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="N44" s="28"/>
+      <c r="AS44" s="28"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="AS45" s="32"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="AS45" s="28"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2198,7 +2264,7 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B6:B34 A40:AP40">
+  <conditionalFormatting sqref="A40:AP40 B6:B12 B16:B34 B14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImpFolder\Study\Projects\BugTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C292ED-3E80-474B-808C-D1A0F6DAEFAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A692670-F0FA-4496-AC6C-7F6DA6DDBE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{886EFED1-650A-4142-9A82-0722A0454DCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Project Manager</t>
   </si>
@@ -754,10 +754,10 @@
   <dimension ref="A1:AU48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,7 +1778,9 @@
       <c r="A24" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C24" s="16">
         <v>44183</v>
       </c>
@@ -1799,7 +1801,9 @@
       <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C25" s="16">
         <v>44184</v>
       </c>
@@ -1820,7 +1824,9 @@
       <c r="A26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C26" s="16">
         <v>44184</v>
       </c>
@@ -1841,15 +1847,21 @@
       <c r="A27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C27" s="16">
         <v>44185</v>
       </c>
       <c r="D27" s="16">
         <v>44185</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F27" s="16">
+        <v>44183</v>
+      </c>
       <c r="N27" s="28"/>
       <c r="AH27" s="2"/>
       <c r="AS27" s="28"/>
@@ -1858,15 +1870,21 @@
       <c r="A28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C28" s="16">
         <v>44185</v>
       </c>
       <c r="D28" s="16">
         <v>44185</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F28" s="16">
+        <v>44183</v>
+      </c>
       <c r="N28" s="28"/>
       <c r="AH28" s="2"/>
       <c r="AS28" s="28"/>
@@ -1875,15 +1893,21 @@
       <c r="A29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C29" s="16">
         <v>44186</v>
       </c>
       <c r="D29" s="16">
         <v>44186</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F29" s="16">
+        <v>44183</v>
+      </c>
       <c r="N29" s="28"/>
       <c r="AI29" s="2"/>
       <c r="AS29" s="28"/>
@@ -1892,15 +1916,21 @@
       <c r="A30" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C30" s="16">
         <v>44187</v>
       </c>
       <c r="D30" s="16">
         <v>44187</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="E30" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F30" s="16">
+        <v>44183</v>
+      </c>
       <c r="N30" s="28"/>
       <c r="AJ30" s="2"/>
       <c r="AS30" s="28"/>
@@ -2264,7 +2294,7 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A40:AP40 B6:B12 B16:B34 B14">
+  <conditionalFormatting sqref="A40:AP40 B6:B12 B14 B16:B34">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImpFolder\Study\Projects\BugTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A692670-F0FA-4496-AC6C-7F6DA6DDBE15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BCE852-3D4E-4F24-AED8-FC960B97804B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{886EFED1-650A-4142-9A82-0722A0454DCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
   <si>
     <t>Project Manager</t>
   </si>
@@ -754,10 +754,10 @@
   <dimension ref="A1:AU48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1514,8 +1514,12 @@
       <c r="D15" s="18">
         <v>44177</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="18">
+        <v>44165</v>
+      </c>
+      <c r="F15" s="18">
+        <v>44177</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1713,7 +1717,9 @@
       <c r="D22" s="18">
         <v>44188</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="18">
+        <v>44183</v>
+      </c>
       <c r="F22" s="19"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1939,15 +1945,21 @@
       <c r="A31" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C31" s="16">
         <v>44187</v>
       </c>
       <c r="D31" s="16">
         <v>44187</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="E31" s="16">
+        <v>44186</v>
+      </c>
+      <c r="F31" s="16">
+        <v>44186</v>
+      </c>
       <c r="N31" s="28"/>
       <c r="AJ31" s="2"/>
       <c r="AS31" s="28"/>
@@ -1956,15 +1968,21 @@
       <c r="A32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C32" s="16">
         <v>44187</v>
       </c>
       <c r="D32" s="16">
         <v>44187</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="E32" s="16">
+        <v>44186</v>
+      </c>
+      <c r="F32" s="16">
+        <v>44186</v>
+      </c>
       <c r="N32" s="28"/>
       <c r="AJ32" s="2"/>
       <c r="AS32" s="28"/>
@@ -1973,15 +1991,21 @@
       <c r="A33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C33" s="16">
         <v>44188</v>
       </c>
       <c r="D33" s="16">
         <v>44188</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="E33" s="16">
+        <v>44186</v>
+      </c>
+      <c r="F33" s="16">
+        <v>44186</v>
+      </c>
       <c r="N33" s="28"/>
       <c r="AK33" s="2"/>
       <c r="AS33" s="28"/>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImpFolder\Study\Projects\BugTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BCE852-3D4E-4F24-AED8-FC960B97804B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF3F52-03A4-495A-BD8F-C3C5A2F29B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{886EFED1-650A-4142-9A82-0722A0454DCF}"/>
   </bookViews>
@@ -757,7 +757,7 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2075,7 +2075,9 @@
       <c r="D35" s="16">
         <v>44191</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="16">
+        <v>44188</v>
+      </c>
       <c r="F35" s="16"/>
       <c r="N35" s="28"/>
       <c r="AL35" s="2"/>
@@ -2093,8 +2095,12 @@
       <c r="D36" s="16">
         <v>44192</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="E36" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F36" s="16">
+        <v>44187</v>
+      </c>
       <c r="N36" s="28"/>
       <c r="AO36" s="2"/>
       <c r="AS36" s="28"/>
@@ -2109,8 +2115,12 @@
       <c r="D37" s="16">
         <v>44192</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="E37" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F37" s="16">
+        <v>44187</v>
+      </c>
       <c r="N37" s="28"/>
       <c r="AO37" s="2"/>
       <c r="AS37" s="28"/>
@@ -2125,8 +2135,12 @@
       <c r="D38" s="16">
         <v>44193</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="E38" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F38" s="16">
+        <v>44187</v>
+      </c>
       <c r="N38" s="28"/>
       <c r="AP38" s="2"/>
       <c r="AS38" s="28"/>
@@ -2141,8 +2155,12 @@
       <c r="D39" s="16">
         <v>44193</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="E39" s="16">
+        <v>44187</v>
+      </c>
+      <c r="F39" s="16">
+        <v>44187</v>
+      </c>
       <c r="N39" s="28"/>
       <c r="AP39" s="2"/>
       <c r="AS39" s="28"/>

--- a/Project_Plan.xlsx
+++ b/Project_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ImpFolder\Study\Projects\BugTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DF3F52-03A4-495A-BD8F-C3C5A2F29B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D00BC2-9D98-4C00-B5CE-5000744B8674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{886EFED1-650A-4142-9A82-0722A0454DCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
   <si>
     <t>Project Manager</t>
   </si>
@@ -141,39 +141,9 @@
     <t>1. view : landing page</t>
   </si>
   <si>
-    <t>2. view : list of users</t>
-  </si>
-  <si>
     <t>4. view : list of tickets</t>
   </si>
   <si>
-    <t>5. view : list of projects</t>
-  </si>
-  <si>
-    <t>6. view : project details</t>
-  </si>
-  <si>
-    <t>3. func : add users</t>
-  </si>
-  <si>
-    <t>4. func : manage users</t>
-  </si>
-  <si>
-    <t>7. func : manage projects</t>
-  </si>
-  <si>
-    <t>8. func : manage project users</t>
-  </si>
-  <si>
-    <t>9. view : list of tickets</t>
-  </si>
-  <si>
-    <t>10. view : ticket details</t>
-  </si>
-  <si>
-    <t>11. func : Manage tickets</t>
-  </si>
-  <si>
     <t>2. view : list of projects</t>
   </si>
   <si>
@@ -187,6 +157,30 @@
   </si>
   <si>
     <t>Jan</t>
+  </si>
+  <si>
+    <t>1. view : list of users</t>
+  </si>
+  <si>
+    <t>2. func : add users</t>
+  </si>
+  <si>
+    <t>3. func : manage users</t>
+  </si>
+  <si>
+    <t>6. func : manage projects</t>
+  </si>
+  <si>
+    <t>7. func : manage project users</t>
+  </si>
+  <si>
+    <t>8. view : list of tickets</t>
+  </si>
+  <si>
+    <t>9. view : ticket details</t>
+  </si>
+  <si>
+    <t>10. func : Manage tickets</t>
   </si>
 </sst>
 </file>
@@ -420,7 +414,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -751,13 +795,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174427EE-9525-4626-99D7-0EF4B41F1E97}">
-  <dimension ref="A1:AU48"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="X37" sqref="X37"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +915,7 @@
       <c r="AR3" s="40"/>
       <c r="AS3" s="41"/>
       <c r="AT3" s="42" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AU3" s="42"/>
     </row>
@@ -1720,7 +1764,9 @@
       <c r="E22" s="18">
         <v>44183</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="18">
+        <v>44186</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1765,33 +1811,39 @@
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" s="16">
         <v>44183</v>
       </c>
       <c r="D23" s="16">
         <v>44183</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="16">
+        <v>44183</v>
+      </c>
+      <c r="F23" s="16">
+        <v>44183</v>
+      </c>
       <c r="N23" s="28"/>
       <c r="AF23" s="2"/>
       <c r="AS23" s="28"/>
     </row>
     <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="16">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="D24" s="16">
-        <v>44183</v>
+        <v>44184</v>
       </c>
       <c r="E24" s="16">
         <v>44183</v>
@@ -1800,12 +1852,12 @@
         <v>44183</v>
       </c>
       <c r="N24" s="28"/>
-      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
       <c r="AS24" s="28"/>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>23</v>
@@ -1828,16 +1880,16 @@
     </row>
     <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="16">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="D26" s="16">
-        <v>44184</v>
+        <v>44185</v>
       </c>
       <c r="E26" s="16">
         <v>44183</v>
@@ -1846,12 +1898,12 @@
         <v>44183</v>
       </c>
       <c r="N26" s="28"/>
-      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
       <c r="AS26" s="28"/>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>23</v>
@@ -1874,16 +1926,16 @@
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="16">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="D28" s="16">
-        <v>44185</v>
+        <v>44186</v>
       </c>
       <c r="E28" s="16">
         <v>44183</v>
@@ -1892,21 +1944,21 @@
         <v>44183</v>
       </c>
       <c r="N28" s="28"/>
-      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
       <c r="AS28" s="28"/>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="16">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="D29" s="16">
-        <v>44186</v>
+        <v>44187</v>
       </c>
       <c r="E29" s="16">
         <v>44183</v>
@@ -1915,12 +1967,12 @@
         <v>44183</v>
       </c>
       <c r="N29" s="28"/>
-      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
       <c r="AS29" s="28"/>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>23</v>
@@ -1932,10 +1984,10 @@
         <v>44187</v>
       </c>
       <c r="E30" s="16">
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="F30" s="16">
-        <v>44183</v>
+        <v>44186</v>
       </c>
       <c r="N30" s="28"/>
       <c r="AJ30" s="2"/>
@@ -1943,7 +1995,7 @@
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>23</v>
@@ -1966,16 +2018,16 @@
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="16">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="D32" s="16">
-        <v>44187</v>
+        <v>44188</v>
       </c>
       <c r="E32" s="16">
         <v>44186</v>
@@ -1984,110 +2036,122 @@
         <v>44186</v>
       </c>
       <c r="N32" s="28"/>
-      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
       <c r="AS32" s="28"/>
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="16">
+      <c r="A33" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="18">
+        <v>44189</v>
+      </c>
+      <c r="D33" s="18">
+        <v>44193</v>
+      </c>
+      <c r="E33" s="18">
+        <v>44187</v>
+      </c>
+      <c r="F33" s="18">
+        <v>44191</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="4"/>
+      <c r="AR33" s="4"/>
+      <c r="AS33" s="29"/>
+      <c r="AT33" s="4"/>
+      <c r="AU33" s="4"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="16">
+        <v>44189</v>
+      </c>
+      <c r="D34" s="16">
+        <v>44191</v>
+      </c>
+      <c r="E34" s="16">
         <v>44188</v>
       </c>
-      <c r="D33" s="16">
-        <v>44188</v>
-      </c>
-      <c r="E33" s="16">
-        <v>44186</v>
-      </c>
-      <c r="F33" s="16">
-        <v>44186</v>
-      </c>
-      <c r="N33" s="28"/>
-      <c r="AK33" s="2"/>
-      <c r="AS33" s="28"/>
-    </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="18">
-        <v>44189</v>
-      </c>
-      <c r="D34" s="18">
-        <v>44193</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="9"/>
-      <c r="AM34" s="9"/>
-      <c r="AN34" s="9"/>
-      <c r="AO34" s="9"/>
-      <c r="AP34" s="9"/>
-      <c r="AQ34" s="4"/>
-      <c r="AR34" s="4"/>
-      <c r="AS34" s="29"/>
-      <c r="AT34" s="4"/>
-      <c r="AU34" s="4"/>
+      <c r="F34" s="16">
+        <v>44191</v>
+      </c>
+      <c r="N34" s="28"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AS34" s="28"/>
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C35" s="16">
-        <v>44189</v>
+        <v>44192</v>
       </c>
       <c r="D35" s="16">
-        <v>44191</v>
+        <v>44192</v>
       </c>
       <c r="E35" s="16">
-        <v>44188</v>
-      </c>
-      <c r="F35" s="16"/>
+        <v>44187</v>
+      </c>
+      <c r="F35" s="16">
+        <v>44187</v>
+      </c>
       <c r="N35" s="28"/>
-      <c r="AL35" s="2"/>
-      <c r="AM35" s="2"/>
-      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
       <c r="AS35" s="28"/>
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C36" s="16">
         <v>44192</v>
@@ -2107,13 +2171,16 @@
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C37" s="16">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="D37" s="16">
-        <v>44192</v>
+        <v>44193</v>
       </c>
       <c r="E37" s="16">
         <v>44187</v>
@@ -2122,12 +2189,15 @@
         <v>44187</v>
       </c>
       <c r="N37" s="28"/>
-      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
       <c r="AS37" s="28"/>
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="C38" s="16">
         <v>44193</v>
@@ -2146,134 +2216,122 @@
       <c r="AS38" s="28"/>
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="16">
-        <v>44193</v>
-      </c>
-      <c r="D39" s="16">
-        <v>44193</v>
-      </c>
-      <c r="E39" s="16">
-        <v>44187</v>
-      </c>
-      <c r="F39" s="16">
-        <v>44187</v>
-      </c>
-      <c r="N39" s="28"/>
-      <c r="AP39" s="2"/>
-      <c r="AS39" s="28"/>
+      <c r="A39" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="18">
+        <v>44194</v>
+      </c>
+      <c r="D39" s="18">
+        <v>44195</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="19"/>
+      <c r="AU39" s="19"/>
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="18">
-        <v>44194</v>
-      </c>
-      <c r="D40" s="18">
-        <v>44195</v>
-      </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
-      <c r="AB40" s="19"/>
-      <c r="AC40" s="19"/>
-      <c r="AD40" s="19"/>
-      <c r="AE40" s="19"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="19"/>
-      <c r="AQ40" s="9"/>
-      <c r="AR40" s="9"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
+      <c r="A40" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="39">
+        <v>43831</v>
+      </c>
+      <c r="D40" s="39">
+        <v>43832</v>
+      </c>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+      <c r="AS40" s="36"/>
+      <c r="AT40" s="37"/>
+      <c r="AU40" s="37"/>
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A41" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="39">
-        <v>43831</v>
-      </c>
-      <c r="D41" s="39">
-        <v>43832</v>
-      </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="35"/>
-      <c r="AE41" s="35"/>
-      <c r="AF41" s="35"/>
-      <c r="AG41" s="35"/>
-      <c r="AH41" s="35"/>
-      <c r="AI41" s="35"/>
-      <c r="AJ41" s="35"/>
-      <c r="AK41" s="35"/>
-      <c r="AL41" s="35"/>
-      <c r="AM41" s="35"/>
-      <c r="AN41" s="35"/>
-      <c r="AO41" s="35"/>
-      <c r="AP41" s="35"/>
-      <c r="AQ41" s="35"/>
-      <c r="AR41" s="35"/>
-      <c r="AS41" s="36"/>
-      <c r="AT41" s="37"/>
-      <c r="AU41" s="37"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="N41" s="28"/>
+      <c r="AS41" s="28"/>
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="C42" s="16"/>
@@ -2296,7 +2354,6 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="N44" s="28"/>
       <c r="AS44" s="28"/>
     </row>
     <row r="45" spans="1:47" x14ac:dyDescent="0.3">
@@ -2304,7 +2361,6 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-      <c r="AS45" s="28"/>
     </row>
     <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="C46" s="16"/>
@@ -2317,12 +2373,6 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2336,12 +2386,37 @@
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A40:AP40 B6:B12 B14 B16:B34">
+  <conditionalFormatting sqref="A39:AP39 B6:B12 B14 B16:B33">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT39:AU39">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT40:AU40">
+  <conditionalFormatting sqref="B38">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
